--- a/main/ig/CodeSystem-competence-code-system.xlsx
+++ b/main/ig/CodeSystem-competence-code-system.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/CodeSystem/competence-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ruim/CodeSystem/competence-code-system</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T17:15:36+00:00</t>
+    <t>2026-02-06T10:39:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-competence-code-system.xlsx
+++ b/main/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T10:39:27+00:00</t>
+    <t>2026-02-06T10:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-competence-code-system.xlsx
+++ b/main/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T10:41:32+00:00</t>
+    <t>2026-02-06T10:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
